--- a/Code/Results/Cases/Case_7_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_50/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9971168342533345</v>
+        <v>0.9955085603719667</v>
       </c>
       <c r="D2">
-        <v>1.01775388818741</v>
+        <v>1.016969903679871</v>
       </c>
       <c r="E2">
-        <v>1.003524049840981</v>
+        <v>1.002511009806565</v>
       </c>
       <c r="F2">
-        <v>1.017662539889051</v>
+        <v>1.016692325598681</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041648656580335</v>
+        <v>1.041663444407096</v>
       </c>
       <c r="J2">
-        <v>1.019384123616317</v>
+        <v>1.017824444575106</v>
       </c>
       <c r="K2">
-        <v>1.028971302369641</v>
+        <v>1.02819777680105</v>
       </c>
       <c r="L2">
-        <v>1.014934506414802</v>
+        <v>1.013935472772629</v>
       </c>
       <c r="M2">
-        <v>1.02888117168429</v>
+        <v>1.027923906674833</v>
       </c>
       <c r="N2">
-        <v>1.020831765996838</v>
+        <v>1.019269872032494</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004145348018699</v>
+        <v>1.00024035702554</v>
       </c>
       <c r="D3">
-        <v>1.02322664361903</v>
+        <v>1.02057108929737</v>
       </c>
       <c r="E3">
-        <v>1.009346843622523</v>
+        <v>1.006302303568783</v>
       </c>
       <c r="F3">
-        <v>1.02401484372406</v>
+        <v>1.02104012717725</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043513872385363</v>
+        <v>1.042719162057987</v>
       </c>
       <c r="J3">
-        <v>1.024523641046134</v>
+        <v>1.020724471809987</v>
       </c>
       <c r="K3">
-        <v>1.03357071632247</v>
+        <v>1.030947354876768</v>
       </c>
       <c r="L3">
-        <v>1.019861510576757</v>
+        <v>1.016855175375991</v>
       </c>
       <c r="M3">
-        <v>1.034349401092673</v>
+        <v>1.031410691554703</v>
       </c>
       <c r="N3">
-        <v>1.025978582130924</v>
+        <v>1.022174017638691</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008565224102692</v>
+        <v>1.003238975470018</v>
       </c>
       <c r="D4">
-        <v>1.026670476118765</v>
+        <v>1.022855224496259</v>
       </c>
       <c r="E4">
-        <v>1.013014868437091</v>
+        <v>1.008711167683478</v>
       </c>
       <c r="F4">
-        <v>1.028015591218866</v>
+        <v>1.023800379098719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04467425727458</v>
+        <v>1.043377198912646</v>
       </c>
       <c r="J4">
-        <v>1.027752339581291</v>
+        <v>1.022560189254265</v>
       </c>
       <c r="K4">
-        <v>1.036457325076557</v>
+        <v>1.032685415870948</v>
       </c>
       <c r="L4">
-        <v>1.022958712750115</v>
+        <v>1.018705581334862</v>
       </c>
       <c r="M4">
-        <v>1.037787253770363</v>
+        <v>1.033619796105573</v>
       </c>
       <c r="N4">
-        <v>1.029211865788338</v>
+        <v>1.024012342012299</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01039430876111</v>
+        <v>1.004485030784507</v>
       </c>
       <c r="D5">
-        <v>1.028096083742637</v>
+        <v>1.023804798767944</v>
       </c>
       <c r="E5">
-        <v>1.014534251228112</v>
+        <v>1.009713606552962</v>
       </c>
       <c r="F5">
-        <v>1.02967259693669</v>
+        <v>1.024948526846194</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04515138380905</v>
+        <v>1.043647959752197</v>
       </c>
       <c r="J5">
-        <v>1.029087621621399</v>
+        <v>1.023322471394686</v>
       </c>
       <c r="K5">
-        <v>1.037650433972088</v>
+        <v>1.033406548499354</v>
       </c>
       <c r="L5">
-        <v>1.024240086206899</v>
+        <v>1.019474497705947</v>
       </c>
       <c r="M5">
-        <v>1.03920965561761</v>
+        <v>1.034537595800382</v>
       </c>
       <c r="N5">
-        <v>1.030549044082102</v>
+        <v>1.024775706680795</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010699762537083</v>
+        <v>1.004693410646349</v>
       </c>
       <c r="D6">
-        <v>1.028334180449141</v>
+        <v>1.023963620372238</v>
       </c>
       <c r="E6">
-        <v>1.014788067445935</v>
+        <v>1.009881329987002</v>
       </c>
       <c r="F6">
-        <v>1.029949391750284</v>
+        <v>1.025140599294316</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045230880241389</v>
+        <v>1.043693080579056</v>
       </c>
       <c r="J6">
-        <v>1.029310559051235</v>
+        <v>1.02344991636247</v>
       </c>
       <c r="K6">
-        <v>1.037849592609587</v>
+        <v>1.033527078122181</v>
       </c>
       <c r="L6">
-        <v>1.024454050778092</v>
+        <v>1.019603083255699</v>
       </c>
       <c r="M6">
-        <v>1.0394471745469</v>
+        <v>1.034691068978481</v>
       </c>
       <c r="N6">
-        <v>1.030772298108659</v>
+        <v>1.02490333263505</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008589776442838</v>
+        <v>1.003255681828562</v>
       </c>
       <c r="D7">
-        <v>1.026689610864495</v>
+        <v>1.02286795424787</v>
       </c>
       <c r="E7">
-        <v>1.013035257981902</v>
+        <v>1.008724602107772</v>
       </c>
       <c r="F7">
-        <v>1.028037828394274</v>
+        <v>1.02381576831706</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044680674144692</v>
+        <v>1.043380839764246</v>
       </c>
       <c r="J7">
-        <v>1.027770266936165</v>
+        <v>1.02257041164823</v>
       </c>
       <c r="K7">
-        <v>1.036473346419637</v>
+        <v>1.03269508882294</v>
       </c>
       <c r="L7">
-        <v>1.022975914467803</v>
+        <v>1.018715890583452</v>
       </c>
       <c r="M7">
-        <v>1.037806348350474</v>
+        <v>1.033632102182663</v>
       </c>
       <c r="N7">
-        <v>1.029229818602112</v>
+        <v>1.024022578923236</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9995196836230485</v>
+        <v>0.9971211191159183</v>
       </c>
       <c r="D8">
-        <v>1.01962431454644</v>
+        <v>1.018196699504842</v>
       </c>
       <c r="E8">
-        <v>1.005513298960172</v>
+        <v>1.00380170911491</v>
       </c>
       <c r="F8">
-        <v>1.019832864284177</v>
+        <v>1.018172946470705</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042288926958366</v>
+        <v>1.042025501423148</v>
       </c>
       <c r="J8">
-        <v>1.021141828017136</v>
+        <v>1.018813162456572</v>
       </c>
       <c r="K8">
-        <v>1.030544864681284</v>
+        <v>1.029135699667189</v>
       </c>
       <c r="L8">
-        <v>1.016619103441581</v>
+        <v>1.014930428919939</v>
       </c>
       <c r="M8">
-        <v>1.030750724599662</v>
+        <v>1.029112254157055</v>
       </c>
       <c r="N8">
-        <v>1.022591966539524</v>
+        <v>1.020259994006764</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9824760789917698</v>
+        <v>0.9858007456672861</v>
       </c>
       <c r="D9">
-        <v>1.006372117907312</v>
+        <v>1.009595666109214</v>
       </c>
       <c r="E9">
-        <v>0.991434936545973</v>
+        <v>0.9947695648667997</v>
       </c>
       <c r="F9">
-        <v>1.004469283005878</v>
+        <v>1.007802122089208</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037696174781923</v>
+        <v>1.039439047061968</v>
       </c>
       <c r="J9">
-        <v>1.00866319875832</v>
+        <v>1.011865076364709</v>
       </c>
       <c r="K9">
-        <v>1.019362651053617</v>
+        <v>1.022534955356421</v>
       </c>
       <c r="L9">
-        <v>1.004668521463848</v>
+        <v>1.007948076099832</v>
       </c>
       <c r="M9">
-        <v>1.0174902630048</v>
+        <v>1.020769870999929</v>
       </c>
       <c r="N9">
-        <v>1.010095616195843</v>
+        <v>1.013302040835693</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9702748131057349</v>
+        <v>0.9778707399970478</v>
       </c>
       <c r="D10">
-        <v>0.9969103607938228</v>
+        <v>1.003588043697221</v>
       </c>
       <c r="E10">
-        <v>0.9814019933663432</v>
+        <v>0.9884815704722593</v>
       </c>
       <c r="F10">
-        <v>0.9935155614188409</v>
+        <v>1.000569539932996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034346096666339</v>
+        <v>1.037572431539806</v>
       </c>
       <c r="J10">
-        <v>0.999719532040222</v>
+        <v>1.006990716022429</v>
       </c>
       <c r="K10">
-        <v>1.011335624606504</v>
+        <v>1.017892815700684</v>
       </c>
       <c r="L10">
-        <v>0.9961153606233363</v>
+        <v>1.003061955327344</v>
       </c>
       <c r="M10">
-        <v>1.008002889795178</v>
+        <v>1.014928518768994</v>
       </c>
       <c r="N10">
-        <v>1.001139248445152</v>
+        <v>1.00842075834263</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9647599432574626</v>
+        <v>0.974336385496444</v>
       </c>
       <c r="D11">
-        <v>0.9926419761460034</v>
+        <v>1.00091571443739</v>
       </c>
       <c r="E11">
-        <v>0.9768798761392385</v>
+        <v>0.9856892058392047</v>
       </c>
       <c r="F11">
-        <v>0.9885772260159795</v>
+        <v>0.9973545727737348</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032818321948857</v>
+        <v>1.036728203790123</v>
       </c>
       <c r="J11">
-        <v>0.9956759615073011</v>
+        <v>1.004817194310326</v>
       </c>
       <c r="K11">
-        <v>1.007704000966204</v>
+        <v>1.015820382362405</v>
       </c>
       <c r="L11">
-        <v>0.9922513844504375</v>
+        <v>1.000886144962785</v>
       </c>
       <c r="M11">
-        <v>1.003717822753246</v>
+        <v>1.012326551012007</v>
       </c>
       <c r="N11">
-        <v>0.9970899355782707</v>
+        <v>1.00624414998039</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9626734792180086</v>
+        <v>0.9730075549003977</v>
       </c>
       <c r="D12">
-        <v>0.9910285536300626</v>
+        <v>0.999911868064322</v>
       </c>
       <c r="E12">
-        <v>0.9751710899206673</v>
+        <v>0.9846409508295989</v>
       </c>
       <c r="F12">
-        <v>0.9867109784071</v>
+        <v>0.9961471900233463</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032238387738761</v>
+        <v>1.036409011653954</v>
       </c>
       <c r="J12">
-        <v>0.9941461040784529</v>
+        <v>1.003999904410649</v>
       </c>
       <c r="K12">
-        <v>1.006329674686366</v>
+        <v>1.015040756737719</v>
       </c>
       <c r="L12">
-        <v>0.9907899497020832</v>
+        <v>1.000068442693255</v>
       </c>
       <c r="M12">
-        <v>1.002097281836402</v>
+        <v>1.011348577920711</v>
       </c>
       <c r="N12">
-        <v>0.9955579055763962</v>
+        <v>1.00542569943531</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.96312280791379</v>
+        <v>0.9732933334087839</v>
       </c>
       <c r="D13">
-        <v>0.9913759415958647</v>
+        <v>1.000127713854567</v>
       </c>
       <c r="E13">
-        <v>0.9755389869222649</v>
+        <v>0.9848663148415886</v>
       </c>
       <c r="F13">
-        <v>0.987112784770434</v>
+        <v>0.9964067868635657</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032363363914105</v>
+        <v>1.036477736681978</v>
       </c>
       <c r="J13">
-        <v>0.994475564631244</v>
+        <v>1.00417567440082</v>
       </c>
       <c r="K13">
-        <v>1.006625654949953</v>
+        <v>1.015208441788427</v>
       </c>
       <c r="L13">
-        <v>0.9911046534582068</v>
+        <v>1.000244281047982</v>
       </c>
       <c r="M13">
-        <v>1.002446239879069</v>
+        <v>1.011558885948991</v>
       </c>
       <c r="N13">
-        <v>0.9958878340009621</v>
+        <v>1.005601719039029</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9645882704919142</v>
+        <v>0.9742268760589228</v>
       </c>
       <c r="D14">
-        <v>0.9925091941109465</v>
+        <v>1.00083296852776</v>
       </c>
       <c r="E14">
-        <v>0.9767392350407318</v>
+        <v>0.9856027856369013</v>
       </c>
       <c r="F14">
-        <v>0.9884236288580879</v>
+        <v>0.9972550436510836</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032770643721409</v>
+        <v>1.036701934910244</v>
       </c>
       <c r="J14">
-        <v>0.9955500858733074</v>
+        <v>1.004749842801594</v>
       </c>
       <c r="K14">
-        <v>1.007590928661958</v>
+        <v>1.015756141623837</v>
       </c>
       <c r="L14">
-        <v>0.9921311288591975</v>
+        <v>1.000818750336905</v>
       </c>
       <c r="M14">
-        <v>1.003584471628521</v>
+        <v>1.012245949244448</v>
       </c>
       <c r="N14">
-        <v>0.9969638811864385</v>
+        <v>1.00617670282479</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9654860531917255</v>
+        <v>0.9747999124771429</v>
       </c>
       <c r="D15">
-        <v>0.993203653621534</v>
+        <v>1.001265994490693</v>
       </c>
       <c r="E15">
-        <v>0.9774748199133625</v>
+        <v>0.9860550675879802</v>
       </c>
       <c r="F15">
-        <v>0.9892269693673167</v>
+        <v>0.9977759116619779</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033019905024038</v>
+        <v>1.036839321319718</v>
       </c>
       <c r="J15">
-        <v>0.9962083664794538</v>
+        <v>1.005102273287726</v>
       </c>
       <c r="K15">
-        <v>1.008182239862882</v>
+        <v>1.016092280364409</v>
       </c>
       <c r="L15">
-        <v>0.9927600382199512</v>
+        <v>1.001171424733963</v>
       </c>
       <c r="M15">
-        <v>1.004281874214315</v>
+        <v>1.012667731644016</v>
       </c>
       <c r="N15">
-        <v>0.9976230966265514</v>
+        <v>1.006529633802637</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9706356726886631</v>
+        <v>0.9781031085554167</v>
       </c>
       <c r="D16">
-        <v>0.9971898462515535</v>
+        <v>1.003763854907508</v>
       </c>
       <c r="E16">
-        <v>0.9816981705878363</v>
+        <v>0.9886653745374246</v>
       </c>
       <c r="F16">
-        <v>0.9938389738022617</v>
+        <v>1.000781094985233</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03444579335542</v>
+        <v>1.037627685198273</v>
       </c>
       <c r="J16">
-        <v>0.9999841064177507</v>
+        <v>1.007133598719415</v>
       </c>
       <c r="K16">
-        <v>1.011573197390143</v>
+        <v>1.018029003707397</v>
       </c>
       <c r="L16">
-        <v>0.996368248363624</v>
+        <v>1.003205050361191</v>
       </c>
       <c r="M16">
-        <v>1.00828335788786</v>
+        <v>1.015099624504938</v>
       </c>
       <c r="N16">
-        <v>1.001404198548644</v>
+        <v>1.008563843949435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9738017417203614</v>
+        <v>0.9801475664898557</v>
       </c>
       <c r="D17">
-        <v>0.9996429191680423</v>
+        <v>1.005311308506858</v>
       </c>
       <c r="E17">
-        <v>0.984298189100635</v>
+        <v>0.9902837101514615</v>
       </c>
       <c r="F17">
-        <v>0.9966779426643705</v>
+        <v>1.00264341075043</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03531898160434</v>
+        <v>1.038112435041947</v>
       </c>
       <c r="J17">
-        <v>1.002305288323832</v>
+        <v>1.008390616921167</v>
       </c>
       <c r="K17">
-        <v>1.0136572122028</v>
+        <v>1.019226847752221</v>
       </c>
       <c r="L17">
-        <v>0.9985872454414992</v>
+        <v>1.004464273241776</v>
       </c>
       <c r="M17">
-        <v>1.010744471385416</v>
+        <v>1.016605249607511</v>
       </c>
       <c r="N17">
-        <v>1.003728676799275</v>
+        <v>1.009822647261216</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9756263417891655</v>
+        <v>0.9813304209590189</v>
       </c>
       <c r="D18">
-        <v>1.001057381577946</v>
+        <v>1.006207102370162</v>
       </c>
       <c r="E18">
-        <v>0.9857977557601907</v>
+        <v>0.991220982212516</v>
       </c>
       <c r="F18">
-        <v>0.9983152118419999</v>
+        <v>1.003721689114987</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035820914910046</v>
+        <v>1.038391725302285</v>
       </c>
       <c r="J18">
-        <v>1.003642868106809</v>
+        <v>1.009117781768005</v>
       </c>
       <c r="K18">
-        <v>1.014857888165724</v>
+        <v>1.019919546443549</v>
       </c>
       <c r="L18">
-        <v>0.9998662258887209</v>
+        <v>1.005192993363569</v>
       </c>
       <c r="M18">
-        <v>1.012163090433369</v>
+        <v>1.017476489104198</v>
       </c>
       <c r="N18">
-        <v>1.005068156098967</v>
+        <v>1.010550844765543</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9762448229594251</v>
+        <v>0.9817321343035612</v>
       </c>
       <c r="D19">
-        <v>1.0015369622481</v>
+        <v>1.006511406231453</v>
       </c>
       <c r="E19">
-        <v>0.9863062562387559</v>
+        <v>0.9915394525873448</v>
       </c>
       <c r="F19">
-        <v>0.9988703880080557</v>
+        <v>1.004088021239838</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035990833355303</v>
+        <v>1.038486375805171</v>
       </c>
       <c r="J19">
-        <v>1.004096242095718</v>
+        <v>1.009364717506991</v>
       </c>
       <c r="K19">
-        <v>1.015264817061069</v>
+        <v>1.020154737426345</v>
       </c>
       <c r="L19">
-        <v>1.000299785367827</v>
+        <v>1.005440504615521</v>
       </c>
       <c r="M19">
-        <v>1.012644000259765</v>
+        <v>1.017772394489615</v>
       </c>
       <c r="N19">
-        <v>1.005522173930943</v>
+        <v>1.010798131181602</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.973464361705084</v>
+        <v>0.9799292192295996</v>
       </c>
       <c r="D20">
-        <v>0.9993814363544832</v>
+        <v>1.005145989648479</v>
       </c>
       <c r="E20">
-        <v>0.9840210042102273</v>
+        <v>0.9901107726648753</v>
       </c>
       <c r="F20">
-        <v>0.9963752952884958</v>
+        <v>1.00244443208583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03522606625547</v>
+        <v>1.038060784882945</v>
       </c>
       <c r="J20">
-        <v>1.002057951364543</v>
+        <v>1.008256378232558</v>
       </c>
       <c r="K20">
-        <v>1.013435171185518</v>
+        <v>1.019098952564212</v>
       </c>
       <c r="L20">
-        <v>0.9983507672428894</v>
+        <v>1.004329770040028</v>
       </c>
       <c r="M20">
-        <v>1.010482181610875</v>
+        <v>1.016444434853998</v>
       </c>
       <c r="N20">
-        <v>1.003480988593134</v>
+        <v>1.009688217938271</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9641578048259682</v>
+        <v>0.9739524206352506</v>
       </c>
       <c r="D21">
-        <v>0.9921762702334838</v>
+        <v>1.000625603138896</v>
       </c>
       <c r="E21">
-        <v>0.9763866147749775</v>
+        <v>0.985386223200969</v>
       </c>
       <c r="F21">
-        <v>0.9880385217399562</v>
+        <v>0.9970056234430206</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032651061072857</v>
+        <v>1.036636070652281</v>
       </c>
       <c r="J21">
-        <v>0.9952344553863236</v>
+        <v>1.004581043293926</v>
       </c>
       <c r="K21">
-        <v>1.007307397173925</v>
+        <v>1.015595132962577</v>
       </c>
       <c r="L21">
-        <v>0.9918295982024615</v>
+        <v>1.000649850001311</v>
       </c>
       <c r="M21">
-        <v>1.003250107653018</v>
+        <v>1.012043948139632</v>
       </c>
       <c r="N21">
-        <v>0.9966478024679599</v>
+        <v>1.006007663602459</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9580846821307814</v>
+        <v>0.9701014229147238</v>
       </c>
       <c r="D22">
-        <v>0.9874830632614252</v>
+        <v>0.9977182099902738</v>
       </c>
       <c r="E22">
-        <v>0.9714169888561602</v>
+        <v>0.9823514784147193</v>
       </c>
       <c r="F22">
-        <v>0.982610601245858</v>
+        <v>0.9935092692711204</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030959513548495</v>
+        <v>1.035707735875367</v>
       </c>
       <c r="J22">
-        <v>0.9907815514629895</v>
+        <v>1.002212389244919</v>
       </c>
       <c r="K22">
-        <v>1.003306629165374</v>
+        <v>1.013335005516286</v>
       </c>
       <c r="L22">
-        <v>0.9875767726226173</v>
+        <v>0.9982808550351112</v>
       </c>
       <c r="M22">
-        <v>0.9985345998862791</v>
+        <v>1.009210414811823</v>
       </c>
       <c r="N22">
-        <v>0.9921885749102993</v>
+        <v>1.003635645793014</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9613263513915054</v>
+        <v>0.9721520569567242</v>
       </c>
       <c r="D23">
-        <v>0.9899872840728053</v>
+        <v>0.9992658559587015</v>
       </c>
       <c r="E23">
-        <v>0.9740684222151946</v>
+        <v>0.9839665495873624</v>
       </c>
       <c r="F23">
-        <v>0.9855066497160178</v>
+        <v>0.9953702754593607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031863425150122</v>
+        <v>1.036203022167038</v>
       </c>
       <c r="J23">
-        <v>0.9931583572082699</v>
+        <v>1.003473714818962</v>
       </c>
       <c r="K23">
-        <v>1.005442260191378</v>
+        <v>1.01453872136081</v>
       </c>
       <c r="L23">
-        <v>0.9898465157969335</v>
+        <v>0.9995421144759599</v>
       </c>
       <c r="M23">
-        <v>1.001051183483051</v>
+        <v>1.010719056898127</v>
       </c>
       <c r="N23">
-        <v>0.9945687559923614</v>
+        <v>1.004898762594049</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9736168773151695</v>
+        <v>0.9800279106926408</v>
       </c>
       <c r="D24">
-        <v>0.9994996396183293</v>
+        <v>1.005220711127775</v>
       </c>
       <c r="E24">
-        <v>0.9841463044300058</v>
+        <v>0.9901889362584737</v>
       </c>
       <c r="F24">
-        <v>0.9965121060631642</v>
+        <v>1.002534366585825</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035268073453098</v>
+        <v>1.038084134032047</v>
       </c>
       <c r="J24">
-        <v>1.002169762578907</v>
+        <v>1.00831705352392</v>
       </c>
       <c r="K24">
-        <v>1.01353554784708</v>
+        <v>1.019156761351472</v>
       </c>
       <c r="L24">
-        <v>0.9984576687601421</v>
+        <v>1.004390564022467</v>
       </c>
       <c r="M24">
-        <v>1.010600751147551</v>
+        <v>1.016517121604532</v>
       </c>
       <c r="N24">
-        <v>1.003592958592247</v>
+        <v>1.009748979395506</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9870200828844846</v>
+        <v>0.9887917664918686</v>
       </c>
       <c r="D25">
-        <v>1.009901654321412</v>
+        <v>1.011865527716954</v>
       </c>
       <c r="E25">
-        <v>0.995181175032949</v>
+        <v>0.9971495432219425</v>
       </c>
       <c r="F25">
-        <v>1.008558334383377</v>
+        <v>1.010536981741887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038931607443408</v>
+        <v>1.040132088415083</v>
       </c>
       <c r="J25">
-        <v>1.011992310520401</v>
+        <v>1.013702310884764</v>
       </c>
       <c r="K25">
-        <v>1.022348180118931</v>
+        <v>1.024282397322697</v>
       </c>
       <c r="L25">
-        <v>1.007854760502308</v>
+        <v>1.009792270611598</v>
       </c>
       <c r="M25">
-        <v>1.02102523025349</v>
+        <v>1.022973897477833</v>
       </c>
       <c r="N25">
-        <v>1.01342945567848</v>
+        <v>1.0151418844395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9955085603719667</v>
+        <v>0.9952099657763399</v>
       </c>
       <c r="D2">
-        <v>1.016969903679871</v>
+        <v>1.017753190207392</v>
       </c>
       <c r="E2">
-        <v>1.002511009806565</v>
+        <v>1.002328730449408</v>
       </c>
       <c r="F2">
-        <v>1.016692325598681</v>
+        <v>1.023891589043587</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041663444407096</v>
+        <v>1.042061270144801</v>
       </c>
       <c r="J2">
-        <v>1.017824444575106</v>
+        <v>1.017534895984204</v>
       </c>
       <c r="K2">
-        <v>1.02819777680105</v>
+        <v>1.028970613692391</v>
       </c>
       <c r="L2">
-        <v>1.013935472772629</v>
+        <v>1.01375571741816</v>
       </c>
       <c r="M2">
-        <v>1.027923906674833</v>
+        <v>1.035027815614335</v>
       </c>
       <c r="N2">
-        <v>1.019269872032494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009773140015181</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.0362945445028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00024035702554</v>
+        <v>0.9988459035963227</v>
       </c>
       <c r="D3">
-        <v>1.02057108929737</v>
+        <v>1.020233274102983</v>
       </c>
       <c r="E3">
-        <v>1.006302303568783</v>
+        <v>1.005164976996298</v>
       </c>
       <c r="F3">
-        <v>1.02104012717725</v>
+        <v>1.026511145026943</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042719162057987</v>
+        <v>1.042648305110546</v>
       </c>
       <c r="J3">
-        <v>1.020724471809987</v>
+        <v>1.019368079964643</v>
       </c>
       <c r="K3">
-        <v>1.030947354876768</v>
+        <v>1.03061364989501</v>
       </c>
       <c r="L3">
-        <v>1.016855175375991</v>
+        <v>1.015732194804091</v>
       </c>
       <c r="M3">
-        <v>1.031410691554703</v>
+        <v>1.036815686095881</v>
       </c>
       <c r="N3">
-        <v>1.022174017638691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010395563861453</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.037709531027082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003238975470018</v>
+        <v>1.001158312441436</v>
       </c>
       <c r="D4">
-        <v>1.022855224496259</v>
+        <v>1.021812855750018</v>
       </c>
       <c r="E4">
-        <v>1.008711167683478</v>
+        <v>1.006974738652011</v>
       </c>
       <c r="F4">
-        <v>1.023800379098719</v>
+        <v>1.028183265104719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043377198912646</v>
+        <v>1.043011305980591</v>
       </c>
       <c r="J4">
-        <v>1.022560189254265</v>
+        <v>1.020532434807116</v>
       </c>
       <c r="K4">
-        <v>1.032685415870948</v>
+        <v>1.031654958214246</v>
       </c>
       <c r="L4">
-        <v>1.018705581334862</v>
+        <v>1.016989707319608</v>
       </c>
       <c r="M4">
-        <v>1.033619796105573</v>
+        <v>1.037953038042315</v>
       </c>
       <c r="N4">
-        <v>1.024012342012299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010790667076782</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.03860967177082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004485030784507</v>
+        <v>1.002121078177301</v>
       </c>
       <c r="D5">
-        <v>1.023804798767944</v>
+        <v>1.022471009744112</v>
       </c>
       <c r="E5">
-        <v>1.009713606552962</v>
+        <v>1.007729621179836</v>
       </c>
       <c r="F5">
-        <v>1.024948526846194</v>
+        <v>1.028880871495455</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043647959752197</v>
+        <v>1.043159919663162</v>
       </c>
       <c r="J5">
-        <v>1.023322471394686</v>
+        <v>1.02101681718079</v>
       </c>
       <c r="K5">
-        <v>1.033406548499354</v>
+        <v>1.03208759158589</v>
       </c>
       <c r="L5">
-        <v>1.019474497705947</v>
+        <v>1.017513360241478</v>
       </c>
       <c r="M5">
-        <v>1.034537595800382</v>
+        <v>1.038426605862328</v>
       </c>
       <c r="N5">
-        <v>1.024775706680795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01095497565994</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038984469836805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004693410646349</v>
+        <v>1.002282189021019</v>
       </c>
       <c r="D6">
-        <v>1.023963620372238</v>
+        <v>1.022581174296266</v>
       </c>
       <c r="E6">
-        <v>1.009881329987002</v>
+        <v>1.007856025384104</v>
       </c>
       <c r="F6">
-        <v>1.025140599294316</v>
+        <v>1.028997692514954</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043693080579056</v>
+        <v>1.043184639655389</v>
       </c>
       <c r="J6">
-        <v>1.02344991636247</v>
+        <v>1.021097850597363</v>
       </c>
       <c r="K6">
-        <v>1.033527078122181</v>
+        <v>1.032159934411301</v>
       </c>
       <c r="L6">
-        <v>1.019603083255699</v>
+        <v>1.017600993703805</v>
       </c>
       <c r="M6">
-        <v>1.034691068978481</v>
+        <v>1.038505854493042</v>
       </c>
       <c r="N6">
-        <v>1.02490333263505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010982459734687</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039047189944043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003255681828562</v>
+        <v>1.001171213430195</v>
       </c>
       <c r="D7">
-        <v>1.02286795424787</v>
+        <v>1.021821673056913</v>
       </c>
       <c r="E7">
-        <v>1.008724602107772</v>
+        <v>1.006984848567613</v>
       </c>
       <c r="F7">
-        <v>1.02381576831706</v>
+        <v>1.028192607417114</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043380839764246</v>
+        <v>1.043013307394305</v>
       </c>
       <c r="J7">
-        <v>1.02257041164823</v>
+        <v>1.020538927085744</v>
       </c>
       <c r="K7">
-        <v>1.03269508882294</v>
+        <v>1.031660759123347</v>
       </c>
       <c r="L7">
-        <v>1.018715890583452</v>
+        <v>1.016996723909353</v>
       </c>
       <c r="M7">
-        <v>1.033632102182663</v>
+        <v>1.037959383726961</v>
       </c>
       <c r="N7">
-        <v>1.024022578923236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01079286957135</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.038614693967949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9971211191159183</v>
+        <v>0.9964472576935867</v>
       </c>
       <c r="D8">
-        <v>1.018196699504842</v>
+        <v>1.018596643760453</v>
       </c>
       <c r="E8">
-        <v>1.00380170911491</v>
+        <v>1.003292626274193</v>
       </c>
       <c r="F8">
-        <v>1.018172946470705</v>
+        <v>1.024781703991274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042025501423148</v>
+        <v>1.042263176197541</v>
       </c>
       <c r="J8">
-        <v>1.018813162456572</v>
+        <v>1.018159021803191</v>
       </c>
       <c r="K8">
-        <v>1.029135699667189</v>
+        <v>1.029530468649564</v>
       </c>
       <c r="L8">
-        <v>1.014930428919939</v>
+        <v>1.014428180804634</v>
       </c>
       <c r="M8">
-        <v>1.029112254157055</v>
+        <v>1.035636136784773</v>
       </c>
       <c r="N8">
-        <v>1.020259994006764</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009985097601863</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036775992589903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9858007456672861</v>
+        <v>0.9878016613763655</v>
       </c>
       <c r="D9">
-        <v>1.009595666109214</v>
+        <v>1.01271464015663</v>
       </c>
       <c r="E9">
-        <v>0.9947695648667997</v>
+        <v>0.9965839059524848</v>
       </c>
       <c r="F9">
-        <v>1.007802122089208</v>
+        <v>1.018589684212028</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039439047061968</v>
+        <v>1.040810310202851</v>
       </c>
       <c r="J9">
-        <v>1.011865076364709</v>
+        <v>1.013792652119795</v>
       </c>
       <c r="K9">
-        <v>1.022534955356421</v>
+        <v>1.025604745204908</v>
       </c>
       <c r="L9">
-        <v>1.007948076099832</v>
+        <v>1.009732651116157</v>
       </c>
       <c r="M9">
-        <v>1.020769870999929</v>
+        <v>1.031388188566781</v>
       </c>
       <c r="N9">
-        <v>1.013302040835693</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008501361542296</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.033414000923103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9778707399970478</v>
+        <v>0.9818548581210955</v>
       </c>
       <c r="D10">
-        <v>1.003588043697221</v>
+        <v>1.00871197609104</v>
       </c>
       <c r="E10">
-        <v>0.9884815704722593</v>
+        <v>0.9920105768231917</v>
       </c>
       <c r="F10">
-        <v>1.000569539932996</v>
+        <v>1.014450920247509</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037572431539806</v>
+        <v>1.039778049514424</v>
       </c>
       <c r="J10">
-        <v>1.006990716022429</v>
+        <v>1.010807360535455</v>
       </c>
       <c r="K10">
-        <v>1.017892815700684</v>
+        <v>1.022925694758587</v>
       </c>
       <c r="L10">
-        <v>1.003061955327344</v>
+        <v>1.006525596807347</v>
       </c>
       <c r="M10">
-        <v>1.014928518768994</v>
+        <v>1.028564070388039</v>
       </c>
       <c r="N10">
-        <v>1.00842075834263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007489345298541</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0312307696713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.974336385496444</v>
+        <v>0.9796372923398089</v>
       </c>
       <c r="D11">
-        <v>1.00091571443739</v>
+        <v>1.007435794107502</v>
       </c>
       <c r="E11">
-        <v>0.9856892058392047</v>
+        <v>0.9903652211888943</v>
       </c>
       <c r="F11">
-        <v>0.9973545727737348</v>
+        <v>1.013580874684105</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036728203790123</v>
+        <v>1.03952879144887</v>
       </c>
       <c r="J11">
-        <v>1.004817194310326</v>
+        <v>1.009882423969904</v>
       </c>
       <c r="K11">
-        <v>1.015820382362405</v>
+        <v>1.0222188315337</v>
       </c>
       <c r="L11">
-        <v>1.000886144962785</v>
+        <v>1.005471151733741</v>
       </c>
       <c r="M11">
-        <v>1.012326551012007</v>
+        <v>1.02825114111279</v>
       </c>
       <c r="N11">
-        <v>1.00624414998039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007205721592407</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031422909201637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9730075549003977</v>
+        <v>0.9789615140018179</v>
       </c>
       <c r="D12">
-        <v>0.999911868064322</v>
+        <v>1.007140353369416</v>
       </c>
       <c r="E12">
-        <v>0.9846409508295989</v>
+        <v>0.9898894245202364</v>
       </c>
       <c r="F12">
-        <v>0.9961471900233463</v>
+        <v>1.013601825159508</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036409011653954</v>
+        <v>1.039515725737744</v>
       </c>
       <c r="J12">
-        <v>1.003999904410649</v>
+        <v>1.00968374223316</v>
       </c>
       <c r="K12">
-        <v>1.015040756737719</v>
+        <v>1.022132022215104</v>
       </c>
       <c r="L12">
-        <v>1.000068442693255</v>
+        <v>1.005212924957723</v>
       </c>
       <c r="M12">
-        <v>1.011348577920711</v>
+        <v>1.028472994190994</v>
       </c>
       <c r="N12">
-        <v>1.00542569943531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007163785638912</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.031927118566798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9732933334087839</v>
+        <v>0.9794283714130881</v>
       </c>
       <c r="D13">
-        <v>1.000127713854567</v>
+        <v>1.007582016037672</v>
       </c>
       <c r="E13">
-        <v>0.9848663148415886</v>
+        <v>0.9902803938666712</v>
       </c>
       <c r="F13">
-        <v>0.9964067868635657</v>
+        <v>1.014322934441624</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036477736681978</v>
+        <v>1.039688835943713</v>
       </c>
       <c r="J13">
-        <v>1.00417567440082</v>
+        <v>1.010033706744306</v>
       </c>
       <c r="K13">
-        <v>1.015208441788427</v>
+        <v>1.022521833055414</v>
       </c>
       <c r="L13">
-        <v>1.000244281047982</v>
+        <v>1.005551536880059</v>
       </c>
       <c r="M13">
-        <v>1.011558885948991</v>
+        <v>1.029137649176247</v>
       </c>
       <c r="N13">
-        <v>1.005601719039029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007305891948695</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032731000676187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9742268760589228</v>
+        <v>0.9802710631244427</v>
       </c>
       <c r="D14">
-        <v>1.00083296852776</v>
+        <v>1.008222705141367</v>
       </c>
       <c r="E14">
-        <v>0.9856027856369013</v>
+        <v>0.9909452011853802</v>
       </c>
       <c r="F14">
-        <v>0.9972550436510836</v>
+        <v>1.01514193378735</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036701934910244</v>
+        <v>1.039892956584754</v>
       </c>
       <c r="J14">
-        <v>1.004749842801594</v>
+        <v>1.010525125549639</v>
       </c>
       <c r="K14">
-        <v>1.015756141623837</v>
+        <v>1.023007969293672</v>
       </c>
       <c r="L14">
-        <v>1.000818750336905</v>
+        <v>1.006057118136066</v>
       </c>
       <c r="M14">
-        <v>1.012245949244448</v>
+        <v>1.029800437496584</v>
       </c>
       <c r="N14">
-        <v>1.00617670282479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007487953492457</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033429114808849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9747999124771429</v>
+        <v>0.9807272161462912</v>
       </c>
       <c r="D15">
-        <v>1.001265994490693</v>
+        <v>1.008544252080074</v>
       </c>
       <c r="E15">
-        <v>0.9860550675879802</v>
+        <v>0.9912983143482764</v>
       </c>
       <c r="F15">
-        <v>0.9977759116619779</v>
+        <v>1.01550800337158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036839321319718</v>
+        <v>1.039985487165612</v>
       </c>
       <c r="J15">
-        <v>1.005102273287726</v>
+        <v>1.010768249366781</v>
       </c>
       <c r="K15">
-        <v>1.016092280364409</v>
+        <v>1.023235772828526</v>
       </c>
       <c r="L15">
-        <v>1.001171424733963</v>
+        <v>1.006313366913533</v>
       </c>
       <c r="M15">
-        <v>1.012667731644016</v>
+        <v>1.030072932789189</v>
       </c>
       <c r="N15">
-        <v>1.006529633802637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007573686276389</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033682197310829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9781031085554167</v>
+        <v>0.9831498321025844</v>
       </c>
       <c r="D16">
-        <v>1.003763854907508</v>
+        <v>1.010154296135175</v>
       </c>
       <c r="E16">
-        <v>0.9886653745374246</v>
+        <v>0.9931484088187554</v>
       </c>
       <c r="F16">
-        <v>1.000781094985233</v>
+        <v>1.017151782442882</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037627685198273</v>
+        <v>1.040403329914979</v>
       </c>
       <c r="J16">
-        <v>1.007133598719415</v>
+        <v>1.011969332164199</v>
       </c>
       <c r="K16">
-        <v>1.018029003707397</v>
+        <v>1.02430645396085</v>
       </c>
       <c r="L16">
-        <v>1.003205050361191</v>
+        <v>1.007605437544444</v>
       </c>
       <c r="M16">
-        <v>1.015099624504938</v>
+        <v>1.03118232176676</v>
       </c>
       <c r="N16">
-        <v>1.008563843949435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007976066792727</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03452016039847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9801475664898557</v>
+        <v>0.9845687244520623</v>
       </c>
       <c r="D17">
-        <v>1.005311308506858</v>
+        <v>1.011054751670897</v>
       </c>
       <c r="E17">
-        <v>0.9902837101514615</v>
+        <v>0.9942224435662532</v>
       </c>
       <c r="F17">
-        <v>1.00264341075043</v>
+        <v>1.017979288539902</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038112435041947</v>
+        <v>1.040614239242562</v>
       </c>
       <c r="J17">
-        <v>1.008390616921167</v>
+        <v>1.012633097633898</v>
       </c>
       <c r="K17">
-        <v>1.019226847752221</v>
+        <v>1.024871688185077</v>
       </c>
       <c r="L17">
-        <v>1.004464273241776</v>
+        <v>1.008332538341705</v>
       </c>
       <c r="M17">
-        <v>1.016605249607511</v>
+        <v>1.031679252241548</v>
       </c>
       <c r="N17">
-        <v>1.009822647261216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008189163900957</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.034783290597758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9813304209590189</v>
+        <v>0.9852516749554555</v>
       </c>
       <c r="D18">
-        <v>1.006207102370162</v>
+        <v>1.011411850400364</v>
       </c>
       <c r="E18">
-        <v>0.991220982212516</v>
+        <v>0.9947204479324555</v>
       </c>
       <c r="F18">
-        <v>1.003721689114987</v>
+        <v>1.018134906957404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038391725302285</v>
+        <v>1.04066103159486</v>
       </c>
       <c r="J18">
-        <v>1.009117781768005</v>
+        <v>1.012883672778952</v>
       </c>
       <c r="K18">
-        <v>1.019919546443549</v>
+        <v>1.025036465557946</v>
       </c>
       <c r="L18">
-        <v>1.005192993363569</v>
+        <v>1.008630939895844</v>
       </c>
       <c r="M18">
-        <v>1.017476489104198</v>
+        <v>1.031647782089408</v>
       </c>
       <c r="N18">
-        <v>1.010550844765543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008254640130702</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034519413307595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9817321343035612</v>
+        <v>0.9852612241336609</v>
       </c>
       <c r="D19">
-        <v>1.006511406231453</v>
+        <v>1.011269102273726</v>
       </c>
       <c r="E19">
-        <v>0.9915394525873448</v>
+        <v>0.9946905714455646</v>
       </c>
       <c r="F19">
-        <v>1.004088021239838</v>
+        <v>1.017667978193997</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038486375805171</v>
+        <v>1.040558433757424</v>
       </c>
       <c r="J19">
-        <v>1.009364717506991</v>
+        <v>1.012754886188912</v>
       </c>
       <c r="K19">
-        <v>1.020154737426345</v>
+        <v>1.024832595047365</v>
       </c>
       <c r="L19">
-        <v>1.005440504615521</v>
+        <v>1.008536546935959</v>
       </c>
       <c r="M19">
-        <v>1.017772394489615</v>
+        <v>1.031125605877023</v>
       </c>
       <c r="N19">
-        <v>1.010798131181602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008186685393756</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.033778921334296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9799292192295996</v>
+        <v>0.9833961243425254</v>
       </c>
       <c r="D20">
-        <v>1.005145989648479</v>
+        <v>1.009749183023238</v>
       </c>
       <c r="E20">
-        <v>0.9901107726648753</v>
+        <v>0.9931934555425161</v>
       </c>
       <c r="F20">
-        <v>1.00244443208583</v>
+        <v>1.015524896669896</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038060784882945</v>
+        <v>1.040050039532517</v>
       </c>
       <c r="J20">
-        <v>1.008256378232558</v>
+        <v>1.011582450196652</v>
       </c>
       <c r="K20">
-        <v>1.019098952564212</v>
+        <v>1.023622743958226</v>
       </c>
       <c r="L20">
-        <v>1.004329770040028</v>
+        <v>1.007357055111613</v>
       </c>
       <c r="M20">
-        <v>1.016444434853998</v>
+        <v>1.029300144193292</v>
       </c>
       <c r="N20">
-        <v>1.009688217938271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007752304806187</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.031802657619752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9739524206352506</v>
+        <v>0.9788572858912551</v>
       </c>
       <c r="D21">
-        <v>1.000625603138896</v>
+        <v>1.006660298385307</v>
       </c>
       <c r="E21">
-        <v>0.985386223200969</v>
+        <v>0.9897061629134051</v>
       </c>
       <c r="F21">
-        <v>0.9970056234430206</v>
+        <v>1.012250136763365</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036636070652281</v>
+        <v>1.039217019024296</v>
       </c>
       <c r="J21">
-        <v>1.004581043293926</v>
+        <v>1.009266365927894</v>
       </c>
       <c r="K21">
-        <v>1.015595132962577</v>
+        <v>1.021516578538343</v>
       </c>
       <c r="L21">
-        <v>1.000649850001311</v>
+        <v>1.004885215232982</v>
       </c>
       <c r="M21">
-        <v>1.012043948139632</v>
+        <v>1.027003084674082</v>
       </c>
       <c r="N21">
-        <v>1.006007663602459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006961522374465</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029943442029772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9701014229147238</v>
+        <v>0.9759742292579059</v>
       </c>
       <c r="D22">
-        <v>0.9977182099902738</v>
+        <v>1.004716086323854</v>
       </c>
       <c r="E22">
-        <v>0.9823514784147193</v>
+        <v>0.9875023520020204</v>
       </c>
       <c r="F22">
-        <v>0.9935092692711204</v>
+        <v>1.01022078856569</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035707735875367</v>
+        <v>1.038686996192718</v>
       </c>
       <c r="J22">
-        <v>1.002212389244919</v>
+        <v>1.007806395008697</v>
       </c>
       <c r="K22">
-        <v>1.013335005516286</v>
+        <v>1.020194692004575</v>
       </c>
       <c r="L22">
-        <v>0.9982808550351112</v>
+        <v>1.003325522917825</v>
       </c>
       <c r="M22">
-        <v>1.009210414811823</v>
+        <v>1.025592452882807</v>
       </c>
       <c r="N22">
-        <v>1.003635645793014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006464557072026</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028827003976278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9721520569567242</v>
+        <v>0.9775079334516371</v>
       </c>
       <c r="D23">
-        <v>0.9992658559587015</v>
+        <v>1.005749892304294</v>
       </c>
       <c r="E23">
-        <v>0.9839665495873624</v>
+        <v>0.9886739339950006</v>
       </c>
       <c r="F23">
-        <v>0.9953702754593607</v>
+        <v>1.01129949610094</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036203022167038</v>
+        <v>1.038969868951207</v>
       </c>
       <c r="J23">
-        <v>1.003473714818962</v>
+        <v>1.008583093202037</v>
       </c>
       <c r="K23">
-        <v>1.01453872136081</v>
+        <v>1.020898104384993</v>
       </c>
       <c r="L23">
-        <v>0.9995421144759599</v>
+        <v>1.004155050404243</v>
       </c>
       <c r="M23">
-        <v>1.010719056898127</v>
+        <v>1.026342676944233</v>
       </c>
       <c r="N23">
-        <v>1.004898762594049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006728955122672</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029420765588848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9800279106926408</v>
+        <v>0.9834299825814143</v>
       </c>
       <c r="D24">
-        <v>1.005220711127775</v>
+        <v>1.009751346214731</v>
       </c>
       <c r="E24">
-        <v>0.9901889362584737</v>
+        <v>0.9932145443294779</v>
       </c>
       <c r="F24">
-        <v>1.002534366585825</v>
+        <v>1.015482834342566</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038084134032047</v>
+        <v>1.040041818048639</v>
       </c>
       <c r="J24">
-        <v>1.00831705352392</v>
+        <v>1.011581147500655</v>
       </c>
       <c r="K24">
-        <v>1.019156761351472</v>
+        <v>1.023609354313099</v>
       </c>
       <c r="L24">
-        <v>1.004390564022467</v>
+        <v>1.007361877313494</v>
       </c>
       <c r="M24">
-        <v>1.016517121604532</v>
+        <v>1.029243402226932</v>
       </c>
       <c r="N24">
-        <v>1.009748979395506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007749194781389</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031716527377981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9887917664918686</v>
+        <v>0.9900767184559536</v>
       </c>
       <c r="D25">
-        <v>1.011865527716954</v>
+        <v>1.014259762900546</v>
       </c>
       <c r="E25">
-        <v>0.9971495432219425</v>
+        <v>0.9983433559504259</v>
       </c>
       <c r="F25">
-        <v>1.010536981741887</v>
+        <v>1.02021288030229</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040132088415083</v>
+        <v>1.041201731840275</v>
       </c>
       <c r="J25">
-        <v>1.013702310884764</v>
+        <v>1.014942718598104</v>
       </c>
       <c r="K25">
-        <v>1.024282397322697</v>
+        <v>1.026640675160202</v>
       </c>
       <c r="L25">
-        <v>1.009792270611598</v>
+        <v>1.010967443735835</v>
       </c>
       <c r="M25">
-        <v>1.022973897477833</v>
+        <v>1.032505316145706</v>
       </c>
       <c r="N25">
-        <v>1.0151418844395</v>
+        <v>1.008892352917973</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034298140749954</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9952099657763399</v>
+        <v>0.9956446511736183</v>
       </c>
       <c r="D2">
-        <v>1.017753190207392</v>
+        <v>1.017922623052382</v>
       </c>
       <c r="E2">
-        <v>1.002328730449408</v>
+        <v>1.002708594587606</v>
       </c>
       <c r="F2">
-        <v>1.023891589043587</v>
+        <v>1.024067326307352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042061270144801</v>
+        <v>1.042139265008081</v>
       </c>
       <c r="J2">
-        <v>1.017534895984204</v>
+        <v>1.017956414948833</v>
       </c>
       <c r="K2">
-        <v>1.028970613692391</v>
+        <v>1.029137788830929</v>
       </c>
       <c r="L2">
-        <v>1.01375571741816</v>
+        <v>1.014130322925657</v>
       </c>
       <c r="M2">
-        <v>1.035027815614335</v>
+        <v>1.035201246243251</v>
       </c>
       <c r="N2">
-        <v>1.009773140015181</v>
+        <v>1.011975237592715</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.0362945445028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03643180401114</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019868376327421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9988459035963227</v>
+        <v>0.999136817253412</v>
       </c>
       <c r="D3">
-        <v>1.020233274102983</v>
+        <v>1.020217208922614</v>
       </c>
       <c r="E3">
-        <v>1.005164976996298</v>
+        <v>1.005420123371975</v>
       </c>
       <c r="F3">
-        <v>1.026511145026943</v>
+        <v>1.026551862494874</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.042648305110546</v>
+        <v>1.042648486039245</v>
       </c>
       <c r="J3">
-        <v>1.019368079964643</v>
+        <v>1.019651041192206</v>
       </c>
       <c r="K3">
-        <v>1.03061364989501</v>
+        <v>1.030597780264668</v>
       </c>
       <c r="L3">
-        <v>1.015732194804091</v>
+        <v>1.015984119292803</v>
       </c>
       <c r="M3">
-        <v>1.036815686095881</v>
+        <v>1.036855915465473</v>
       </c>
       <c r="N3">
-        <v>1.010395563861453</v>
+        <v>1.01243284636694</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037709531027082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037741369998992</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020158984721163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001158312441436</v>
+        <v>1.001358849729353</v>
       </c>
       <c r="D4">
-        <v>1.021812855750018</v>
+        <v>1.021679517567589</v>
       </c>
       <c r="E4">
-        <v>1.006974738652011</v>
+        <v>1.007151359565187</v>
       </c>
       <c r="F4">
-        <v>1.028183265104719</v>
+        <v>1.028138765546587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043011305980591</v>
+        <v>1.042962235007254</v>
       </c>
       <c r="J4">
-        <v>1.020532434807116</v>
+        <v>1.020727859747714</v>
       </c>
       <c r="K4">
-        <v>1.031654958214246</v>
+        <v>1.031523145843555</v>
       </c>
       <c r="L4">
-        <v>1.016989707319608</v>
+        <v>1.017164233466991</v>
       </c>
       <c r="M4">
-        <v>1.037953038042315</v>
+        <v>1.037909039901401</v>
       </c>
       <c r="N4">
-        <v>1.010790667076782</v>
+        <v>1.012723487353396</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.03860967177082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038574850099792</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020340652691848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002121078177301</v>
+        <v>1.002284228435872</v>
       </c>
       <c r="D5">
-        <v>1.022471009744112</v>
+        <v>1.02228900700911</v>
       </c>
       <c r="E5">
-        <v>1.007729621179836</v>
+        <v>1.007873730819621</v>
       </c>
       <c r="F5">
-        <v>1.028880871495455</v>
+        <v>1.028801042045939</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043159919663162</v>
+        <v>1.043090397775397</v>
       </c>
       <c r="J5">
-        <v>1.02101681718079</v>
+        <v>1.02117593202211</v>
       </c>
       <c r="K5">
-        <v>1.03208759158589</v>
+        <v>1.031907616464952</v>
       </c>
       <c r="L5">
-        <v>1.017513360241478</v>
+        <v>1.017655806548269</v>
       </c>
       <c r="M5">
-        <v>1.038426605862328</v>
+        <v>1.038347652089946</v>
       </c>
       <c r="N5">
-        <v>1.01095497565994</v>
+        <v>1.012844390629749</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038984469836805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038921983085191</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020415519611434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002282189021019</v>
+        <v>1.002439096650368</v>
       </c>
       <c r="D6">
-        <v>1.022581174296266</v>
+        <v>1.022391037275728</v>
       </c>
       <c r="E6">
-        <v>1.007856025384104</v>
+        <v>1.007994705044962</v>
       </c>
       <c r="F6">
-        <v>1.028997692514954</v>
+        <v>1.028911959522719</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043184639655389</v>
+        <v>1.043111698657879</v>
       </c>
       <c r="J6">
-        <v>1.021097850597363</v>
+        <v>1.021250897067041</v>
       </c>
       <c r="K6">
-        <v>1.032159934411301</v>
+        <v>1.031971906007962</v>
       </c>
       <c r="L6">
-        <v>1.017600993703805</v>
+        <v>1.017738080076128</v>
       </c>
       <c r="M6">
-        <v>1.038505854493042</v>
+        <v>1.038421057657601</v>
       </c>
       <c r="N6">
-        <v>1.010982459734687</v>
+        <v>1.012864616357868</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039047189944043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038980078795488</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020428002331223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001171213430195</v>
+        <v>1.001378791237426</v>
       </c>
       <c r="D7">
-        <v>1.021821673056913</v>
+        <v>1.021693135527093</v>
       </c>
       <c r="E7">
-        <v>1.006984848567613</v>
+        <v>1.007167761679099</v>
       </c>
       <c r="F7">
-        <v>1.028192607417114</v>
+        <v>1.028152227238681</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043013307394305</v>
+        <v>1.042966382997489</v>
       </c>
       <c r="J7">
-        <v>1.020538927085744</v>
+        <v>1.020741215231454</v>
       </c>
       <c r="K7">
-        <v>1.031660759123347</v>
+        <v>1.031533691939199</v>
       </c>
       <c r="L7">
-        <v>1.016996723909353</v>
+        <v>1.017177468426705</v>
       </c>
       <c r="M7">
-        <v>1.037959383726961</v>
+        <v>1.037919458384711</v>
       </c>
       <c r="N7">
-        <v>1.01079286957135</v>
+        <v>1.012752974487696</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038614693967949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038583095652846</v>
+      </c>
+      <c r="S7">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T7">
+        <v>1.020343240752256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9964472576935867</v>
+        <v>0.9968560480089065</v>
       </c>
       <c r="D8">
-        <v>1.018596643760453</v>
+        <v>1.018719717739038</v>
       </c>
       <c r="E8">
-        <v>1.003292626274193</v>
+        <v>1.00365065277412</v>
       </c>
       <c r="F8">
-        <v>1.024781703991274</v>
+        <v>1.024925587263453</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042263176197541</v>
+        <v>1.042322163709072</v>
       </c>
       <c r="J8">
-        <v>1.018159021803191</v>
+        <v>1.018555844374713</v>
       </c>
       <c r="K8">
-        <v>1.029530468649564</v>
+        <v>1.029651951075612</v>
       </c>
       <c r="L8">
-        <v>1.014428180804634</v>
+        <v>1.014781399686994</v>
       </c>
       <c r="M8">
-        <v>1.035636136784773</v>
+        <v>1.035778187402265</v>
       </c>
       <c r="N8">
-        <v>1.009985097601863</v>
+        <v>1.012215818189114</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036775992589903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036888416705347</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019972844842201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9878016613763655</v>
+        <v>0.9885625117493673</v>
       </c>
       <c r="D9">
-        <v>1.01271464015663</v>
+        <v>1.013285814023888</v>
       </c>
       <c r="E9">
-        <v>0.9965839059524848</v>
+        <v>0.9972465413986076</v>
       </c>
       <c r="F9">
-        <v>1.018589684212028</v>
+        <v>1.019060930572225</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040810310202851</v>
+        <v>1.041056989355067</v>
       </c>
       <c r="J9">
-        <v>1.013792652119795</v>
+        <v>1.014525724271043</v>
       </c>
       <c r="K9">
-        <v>1.025604745204908</v>
+        <v>1.026166953991856</v>
       </c>
       <c r="L9">
-        <v>1.009732651116157</v>
+        <v>1.010384450073804</v>
       </c>
       <c r="M9">
-        <v>1.031388188566781</v>
+        <v>1.03185214593143</v>
       </c>
       <c r="N9">
-        <v>1.008501361542296</v>
+        <v>1.011136366415275</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033414000923103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033781195630775</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019265331228259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9818548581210955</v>
+        <v>0.9828952615025915</v>
       </c>
       <c r="D10">
-        <v>1.00871197609104</v>
+        <v>1.009616529450007</v>
       </c>
       <c r="E10">
-        <v>0.9920105768231917</v>
+        <v>0.9929148469443426</v>
       </c>
       <c r="F10">
-        <v>1.014450920247509</v>
+        <v>1.015169278911699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039778049514424</v>
+        <v>1.040164378801971</v>
       </c>
       <c r="J10">
-        <v>1.010807360535455</v>
+        <v>1.011804348192885</v>
       </c>
       <c r="K10">
-        <v>1.022925694758587</v>
+        <v>1.023814298443254</v>
       </c>
       <c r="L10">
-        <v>1.006525596807347</v>
+        <v>1.007413215308866</v>
       </c>
       <c r="M10">
-        <v>1.028564070388039</v>
+        <v>1.029269944261917</v>
       </c>
       <c r="N10">
-        <v>1.007489345298541</v>
+        <v>1.0105201582539</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0312307696713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031789393175377</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018781996714287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9796372923398089</v>
+        <v>0.9808088048212409</v>
       </c>
       <c r="D11">
-        <v>1.007435794107502</v>
+        <v>1.008471120440118</v>
       </c>
       <c r="E11">
-        <v>0.9903652211888943</v>
+        <v>0.9913826560613911</v>
       </c>
       <c r="F11">
-        <v>1.013580874684105</v>
+        <v>1.014399566134635</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.03952879144887</v>
+        <v>1.03996822092765</v>
       </c>
       <c r="J11">
-        <v>1.009882423969904</v>
+        <v>1.011002342518333</v>
       </c>
       <c r="K11">
-        <v>1.0222188315337</v>
+        <v>1.023235032684904</v>
       </c>
       <c r="L11">
-        <v>1.005471151733741</v>
+        <v>1.006468933394022</v>
       </c>
       <c r="M11">
-        <v>1.02825114111279</v>
+        <v>1.029054942591171</v>
       </c>
       <c r="N11">
-        <v>1.007205721592407</v>
+        <v>1.010554341382765</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031422909201637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032058706856276</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018702313445541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9789615140018179</v>
+        <v>0.9801681801750495</v>
       </c>
       <c r="D12">
-        <v>1.007140353369416</v>
+        <v>1.008206009116363</v>
       </c>
       <c r="E12">
-        <v>0.9898894245202364</v>
+        <v>0.9909364665049384</v>
       </c>
       <c r="F12">
-        <v>1.013601825159508</v>
+        <v>1.01444437790267</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039515725737744</v>
+        <v>1.039965972102373</v>
       </c>
       <c r="J12">
-        <v>1.00968374223316</v>
+        <v>1.010836236569016</v>
       </c>
       <c r="K12">
-        <v>1.022132022215104</v>
+        <v>1.023177665696585</v>
       </c>
       <c r="L12">
-        <v>1.005212924957723</v>
+        <v>1.006239394200049</v>
       </c>
       <c r="M12">
-        <v>1.028472994190994</v>
+        <v>1.029299981637481</v>
       </c>
       <c r="N12">
-        <v>1.007163785638912</v>
+        <v>1.010629498720849</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031927118566798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03258103155155</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018719873664041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9794283714130881</v>
+        <v>0.9805875719106</v>
       </c>
       <c r="D13">
-        <v>1.007582016037672</v>
+        <v>1.008594270877602</v>
       </c>
       <c r="E13">
-        <v>0.9902803938666712</v>
+        <v>0.9912850049372326</v>
       </c>
       <c r="F13">
-        <v>1.014322934441624</v>
+        <v>1.01512514872723</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039688835943713</v>
+        <v>1.040114608330876</v>
       </c>
       <c r="J13">
-        <v>1.010033706744306</v>
+        <v>1.011141124874236</v>
       </c>
       <c r="K13">
-        <v>1.022521833055414</v>
+        <v>1.023515162564776</v>
       </c>
       <c r="L13">
-        <v>1.005551536880059</v>
+        <v>1.006536494709418</v>
       </c>
       <c r="M13">
-        <v>1.029137649176247</v>
+        <v>1.029925119555454</v>
       </c>
       <c r="N13">
-        <v>1.007305891948695</v>
+        <v>1.010705469684898</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032731000676187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033353508579125</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018813483189633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9802710631244427</v>
+        <v>0.9813605024406115</v>
       </c>
       <c r="D14">
-        <v>1.008222705141367</v>
+        <v>1.009160536764445</v>
       </c>
       <c r="E14">
-        <v>0.9909452011853802</v>
+        <v>0.9918883596090908</v>
       </c>
       <c r="F14">
-        <v>1.01514193378735</v>
+        <v>1.015887570186445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039892956584754</v>
+        <v>1.040286142543631</v>
       </c>
       <c r="J14">
-        <v>1.010525125549639</v>
+        <v>1.011566599539227</v>
       </c>
       <c r="K14">
-        <v>1.023007969293672</v>
+        <v>1.023928487105228</v>
       </c>
       <c r="L14">
-        <v>1.006057118136066</v>
+        <v>1.006982060284979</v>
       </c>
       <c r="M14">
-        <v>1.029800437496584</v>
+        <v>1.030532547866918</v>
       </c>
       <c r="N14">
-        <v>1.007487953492457</v>
+        <v>1.010759688433625</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033429114808849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034007780961868</v>
+      </c>
+      <c r="S14">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T14">
+        <v>1.018912958484516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9807272161462912</v>
+        <v>0.9817822257142468</v>
       </c>
       <c r="D15">
-        <v>1.008544252080074</v>
+        <v>1.009445954870771</v>
       </c>
       <c r="E15">
-        <v>0.9912983143482764</v>
+        <v>0.9922113641402657</v>
       </c>
       <c r="F15">
-        <v>1.01550800337158</v>
+        <v>1.01622611292187</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039985487165612</v>
+        <v>1.040363217550979</v>
       </c>
       <c r="J15">
-        <v>1.010768249366781</v>
+        <v>1.011777217252343</v>
       </c>
       <c r="K15">
-        <v>1.023235772828526</v>
+        <v>1.024120955740339</v>
       </c>
       <c r="L15">
-        <v>1.006313366913533</v>
+        <v>1.00720891895556</v>
       </c>
       <c r="M15">
-        <v>1.030072932789189</v>
+        <v>1.030778116336466</v>
       </c>
       <c r="N15">
-        <v>1.007573686276389</v>
+        <v>1.010776981671005</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033682197310829</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034239565515975</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018955490555124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9831498321025844</v>
+        <v>0.9840445126504871</v>
       </c>
       <c r="D16">
-        <v>1.010154296135175</v>
+        <v>1.01088744614513</v>
       </c>
       <c r="E16">
-        <v>0.9931484088187554</v>
+        <v>0.9939222926638014</v>
       </c>
       <c r="F16">
-        <v>1.017151782442882</v>
+        <v>1.01774163420759</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040403329914979</v>
+        <v>1.040710579286552</v>
       </c>
       <c r="J16">
-        <v>1.011969332164199</v>
+        <v>1.01282692946018</v>
       </c>
       <c r="K16">
-        <v>1.02430645396085</v>
+        <v>1.025026759302087</v>
       </c>
       <c r="L16">
-        <v>1.007605437544444</v>
+        <v>1.008365152679964</v>
       </c>
       <c r="M16">
-        <v>1.03118232176676</v>
+        <v>1.031762020534298</v>
       </c>
       <c r="N16">
-        <v>1.007976066792727</v>
+        <v>1.010849391036331</v>
       </c>
       <c r="O16">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P16">
-        <v>1.03452016039847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.034978360156421</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019137589623354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9845687244520623</v>
+        <v>0.9853856209453898</v>
       </c>
       <c r="D17">
-        <v>1.011054751670897</v>
+        <v>1.011703886310617</v>
       </c>
       <c r="E17">
-        <v>0.9942224435662532</v>
+        <v>0.9949292949007515</v>
       </c>
       <c r="F17">
-        <v>1.017979288539902</v>
+        <v>1.018505656980285</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040614239242562</v>
+        <v>1.040887059772116</v>
       </c>
       <c r="J17">
-        <v>1.012633097633898</v>
+        <v>1.013417228608287</v>
       </c>
       <c r="K17">
-        <v>1.024871688185077</v>
+        <v>1.025509769485928</v>
       </c>
       <c r="L17">
-        <v>1.008332538341705</v>
+        <v>1.009026819947179</v>
       </c>
       <c r="M17">
-        <v>1.031679252241548</v>
+        <v>1.032196812823918</v>
       </c>
       <c r="N17">
-        <v>1.008189163900957</v>
+        <v>1.010905639939878</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034783290597758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.035192416770771</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019225759391931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9852516749554555</v>
+        <v>0.9860445424113148</v>
       </c>
       <c r="D18">
-        <v>1.011411850400364</v>
+        <v>1.01203526484939</v>
       </c>
       <c r="E18">
-        <v>0.9947204479324555</v>
+        <v>0.9954072326293525</v>
       </c>
       <c r="F18">
-        <v>1.018134906957404</v>
+        <v>1.018641882712474</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04066103159486</v>
+        <v>1.040924392273345</v>
       </c>
       <c r="J18">
-        <v>1.012883672778952</v>
+        <v>1.013645338634303</v>
       </c>
       <c r="K18">
-        <v>1.025036465557946</v>
+        <v>1.025649438113274</v>
       </c>
       <c r="L18">
-        <v>1.008630939895844</v>
+        <v>1.009305716958598</v>
       </c>
       <c r="M18">
-        <v>1.031647782089408</v>
+        <v>1.032146408626349</v>
       </c>
       <c r="N18">
-        <v>1.008254640130702</v>
+        <v>1.010912100046235</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034519413307595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.034913655323402</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019234461822754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9852612241336609</v>
+        <v>0.9860729285077563</v>
       </c>
       <c r="D19">
-        <v>1.011269102273726</v>
+        <v>1.011915609408952</v>
       </c>
       <c r="E19">
-        <v>0.9946905714455646</v>
+        <v>0.995394654149986</v>
       </c>
       <c r="F19">
-        <v>1.017667978193997</v>
+        <v>1.018192161206473</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040558433757424</v>
+        <v>1.040833199253342</v>
       </c>
       <c r="J19">
-        <v>1.012754886188912</v>
+        <v>1.013534836966999</v>
       </c>
       <c r="K19">
-        <v>1.024832595047365</v>
+        <v>1.02546832784141</v>
       </c>
       <c r="L19">
-        <v>1.008536546935959</v>
+        <v>1.009228385088916</v>
       </c>
       <c r="M19">
-        <v>1.031125605877023</v>
+        <v>1.031641192448672</v>
       </c>
       <c r="N19">
-        <v>1.008186685393756</v>
+        <v>1.010853286895683</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033778921334296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.034186707813427</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019169279024863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833961243425254</v>
+        <v>0.984342296721386</v>
       </c>
       <c r="D20">
-        <v>1.009749183023238</v>
+        <v>1.010551241563451</v>
       </c>
       <c r="E20">
-        <v>0.9931934555425161</v>
+        <v>0.994015718833591</v>
       </c>
       <c r="F20">
-        <v>1.015524896669896</v>
+        <v>1.016165688489197</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040050039532517</v>
+        <v>1.040393026145054</v>
       </c>
       <c r="J20">
-        <v>1.011582450196652</v>
+        <v>1.012490431309657</v>
       </c>
       <c r="K20">
-        <v>1.023622743958226</v>
+        <v>1.024411063146561</v>
       </c>
       <c r="L20">
-        <v>1.007357055111613</v>
+        <v>1.008164617173342</v>
       </c>
       <c r="M20">
-        <v>1.029300144193292</v>
+        <v>1.029930117389025</v>
       </c>
       <c r="N20">
-        <v>1.007752304806187</v>
+        <v>1.01060669319179</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031802657619752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.032301219979731</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018904311739201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9788572858912551</v>
+        <v>0.9801280981115896</v>
       </c>
       <c r="D21">
-        <v>1.006660298385307</v>
+        <v>1.007801851958356</v>
       </c>
       <c r="E21">
-        <v>0.9897061629134051</v>
+        <v>0.9908121852670941</v>
       </c>
       <c r="F21">
-        <v>1.012250136763365</v>
+        <v>1.013150471628661</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039217019024296</v>
+        <v>1.039704808903995</v>
       </c>
       <c r="J21">
-        <v>1.009266365927894</v>
+        <v>1.010480808972828</v>
       </c>
       <c r="K21">
-        <v>1.021516578538343</v>
+        <v>1.022636908180068</v>
       </c>
       <c r="L21">
-        <v>1.004885215232982</v>
+        <v>1.005969739653077</v>
       </c>
       <c r="M21">
-        <v>1.027003084674082</v>
+        <v>1.027886915022893</v>
       </c>
       <c r="N21">
-        <v>1.006961522374465</v>
+        <v>1.010479287773137</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029943442029772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.030642944584326</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018535340495764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9759742292579059</v>
+        <v>0.9774503175088627</v>
       </c>
       <c r="D22">
-        <v>1.004716086323854</v>
+        <v>1.006072511860106</v>
       </c>
       <c r="E22">
-        <v>0.9875023520020204</v>
+        <v>0.9887876568402111</v>
       </c>
       <c r="F22">
-        <v>1.01022078856569</v>
+        <v>1.011285477729181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038686996192718</v>
+        <v>1.039266418575473</v>
       </c>
       <c r="J22">
-        <v>1.007806395008697</v>
+        <v>1.009213166094734</v>
       </c>
       <c r="K22">
-        <v>1.020194692004575</v>
+        <v>1.021524623380883</v>
       </c>
       <c r="L22">
-        <v>1.003325522917825</v>
+        <v>1.004584553511194</v>
       </c>
       <c r="M22">
-        <v>1.025592452882807</v>
+        <v>1.026636633988002</v>
       </c>
       <c r="N22">
-        <v>1.006464557072026</v>
+        <v>1.010394647594712</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028827003976278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.029653416490164</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018304013619433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9775079334516371</v>
+        <v>0.9788623579103547</v>
       </c>
       <c r="D23">
-        <v>1.005749892304294</v>
+        <v>1.006982558727905</v>
       </c>
       <c r="E23">
-        <v>0.9886739339950006</v>
+        <v>0.9898526563433273</v>
       </c>
       <c r="F23">
-        <v>1.01129949610094</v>
+        <v>1.012268853562984</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038969868951207</v>
+        <v>1.039496269862302</v>
       </c>
       <c r="J23">
-        <v>1.008583093202037</v>
+        <v>1.009875794487797</v>
       </c>
       <c r="K23">
-        <v>1.020898104384993</v>
+        <v>1.022107310700883</v>
       </c>
       <c r="L23">
-        <v>1.004155050404243</v>
+        <v>1.005310307833573</v>
       </c>
       <c r="M23">
-        <v>1.026342676944233</v>
+        <v>1.02729384270234</v>
       </c>
       <c r="N23">
-        <v>1.006728955122672</v>
+        <v>1.010397366194611</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029420765588848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.030173560912379</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018424531222521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9834299825814143</v>
+        <v>0.9843765678733168</v>
       </c>
       <c r="D24">
-        <v>1.009751346214731</v>
+        <v>1.01055427432292</v>
       </c>
       <c r="E24">
-        <v>0.9932145443294779</v>
+        <v>0.9940372706123901</v>
       </c>
       <c r="F24">
-        <v>1.015482834342566</v>
+        <v>1.016124270691687</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040041818048639</v>
+        <v>1.040385377623446</v>
       </c>
       <c r="J24">
-        <v>1.011581147500655</v>
+        <v>1.012489582512955</v>
       </c>
       <c r="K24">
-        <v>1.023609354313099</v>
+        <v>1.024398545947469</v>
       </c>
       <c r="L24">
-        <v>1.007361877313494</v>
+        <v>1.008169913911491</v>
       </c>
       <c r="M24">
-        <v>1.029243402226932</v>
+        <v>1.029874021823493</v>
       </c>
       <c r="N24">
-        <v>1.007749194781389</v>
+        <v>1.010600568646964</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031716527377981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.032215626509115</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018898018357759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9900767184559536</v>
+        <v>0.990734577878432</v>
       </c>
       <c r="D25">
-        <v>1.014259762900546</v>
+        <v>1.01470555697741</v>
       </c>
       <c r="E25">
-        <v>0.9983433559504259</v>
+        <v>0.9989167834623465</v>
       </c>
       <c r="F25">
-        <v>1.02021288030229</v>
+        <v>1.020591632143783</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041201731840275</v>
+        <v>1.041395777859202</v>
       </c>
       <c r="J25">
-        <v>1.014942718598104</v>
+        <v>1.015577835050434</v>
       </c>
       <c r="K25">
-        <v>1.026640675160202</v>
+        <v>1.027079798008049</v>
       </c>
       <c r="L25">
-        <v>1.010967443735835</v>
+        <v>1.011531938278011</v>
       </c>
       <c r="M25">
-        <v>1.032505316145706</v>
+        <v>1.032878483260733</v>
       </c>
       <c r="N25">
-        <v>1.008892352917973</v>
+        <v>1.011387810488659</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034298140749954</v>
+        <v>1.034593480009636</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019452302459376</v>
       </c>
     </row>
   </sheetData>
